--- a/Republican.xlsx
+++ b/Republican.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanyufei/Documents/Senior2/lab/Ex-Machina/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bdd950bbb81cf3b1/Documents/Felix/Research/Ex-Machina/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADF196C-6578-C24D-889D-EE3F9C935E2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{6ADF196C-6578-C24D-889D-EE3F9C935E2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{477C2EEA-CF92-4A9E-BB5E-276BDD0FDCA6}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="2520" windowWidth="27440" windowHeight="15800" xr2:uid="{4E8AE020-1BEF-5A41-ADEB-E099BED297A0}"/>
+    <workbookView xWindow="1098" yWindow="1098" windowWidth="17280" windowHeight="8994" xr2:uid="{4E8AE020-1BEF-5A41-ADEB-E099BED297A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -617,7 +617,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1022,277 +1022,277 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="38.34765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
